--- a/code/testData/InstantNoodlesAttr.xlsx
+++ b/code/testData/InstantNoodlesAttr.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
   <si>
     <t>袋装75g</t>
   </si>
@@ -362,6 +362,21 @@
   </si>
   <si>
     <t>if_widen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if_bigger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>加大分量</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,7 +388,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,6 +420,11 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -447,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -498,6 +518,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -801,23 +824,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="11" max="11" width="13.125" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>61</v>
@@ -831,57 +856,63 @@
       <c r="F1" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2">
+        <v>20070528761</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="C3" s="6">
+        <v>20070810671</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
         <v>1003</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1001</v>
-      </c>
-      <c r="C3" s="2">
-        <v>20070528761</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1002</v>
-      </c>
-      <c r="C4" s="6">
-        <v>20070810671</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>2</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>0</v>
@@ -890,12 +921,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B5" t="s">
         <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1004</v>
       </c>
       <c r="C5" s="6">
         <v>2007100312</v>
@@ -909,13 +940,17 @@
       <c r="F5" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="G5" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>1005</v>
+      </c>
+      <c r="B6" t="s">
         <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1005</v>
       </c>
       <c r="C6" s="2">
         <v>20070917561</v>
@@ -929,13 +964,14 @@
       <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>1006</v>
+      </c>
+      <c r="B7" t="s">
         <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1006</v>
       </c>
       <c r="C7" s="2">
         <v>2007092612</v>
@@ -949,13 +985,17 @@
       <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="G7" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>1007</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" s="5">
-        <v>1007</v>
       </c>
       <c r="C8" s="7">
         <v>200706201035</v>
@@ -966,13 +1006,14 @@
       <c r="E8" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <v>1008</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1008</v>
       </c>
       <c r="C9" s="4">
         <v>200706190122</v>
@@ -983,13 +1024,14 @@
       <c r="E9" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>1009</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1009</v>
       </c>
       <c r="C10" s="4">
         <v>200706190132</v>
@@ -1001,12 +1043,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A11" s="5">
+        <v>1010</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1010</v>
       </c>
       <c r="C11" s="7">
         <v>200706190042</v>
@@ -1018,12 +1060,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A12" s="5">
+        <v>1011</v>
+      </c>
+      <c r="B12" t="s">
         <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>1011</v>
       </c>
       <c r="C12" s="4">
         <v>200706207074</v>
@@ -1035,12 +1077,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <v>1012</v>
+      </c>
+      <c r="B13" t="s">
         <v>9</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1012</v>
       </c>
       <c r="C13" s="4">
         <v>200706191114</v>
@@ -1052,12 +1094,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <v>1013</v>
+      </c>
+      <c r="B14" t="s">
         <v>22</v>
-      </c>
-      <c r="B14" s="5">
-        <v>1013</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>23</v>
@@ -1069,12 +1111,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
+        <v>1014</v>
+      </c>
+      <c r="B15" t="s">
         <v>22</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1014</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>25</v>
@@ -1086,12 +1128,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
+        <v>1015</v>
+      </c>
+      <c r="B16" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" s="5">
-        <v>1015</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>26</v>
@@ -1104,11 +1146,11 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="A17" s="5">
+        <v>1016</v>
+      </c>
+      <c r="B17" t="s">
         <v>22</v>
-      </c>
-      <c r="B17" s="5">
-        <v>1016</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>28</v>
@@ -1121,11 +1163,11 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+      <c r="A18" s="5">
+        <v>1017</v>
+      </c>
+      <c r="B18" t="s">
         <v>22</v>
-      </c>
-      <c r="B18" s="5">
-        <v>1017</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>30</v>
@@ -1138,11 +1180,11 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="A19" s="5">
+        <v>1018</v>
+      </c>
+      <c r="B19" t="s">
         <v>22</v>
-      </c>
-      <c r="B19" s="5">
-        <v>1018</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>32</v>
@@ -1155,11 +1197,11 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="A20" s="5">
+        <v>1019</v>
+      </c>
+      <c r="B20" t="s">
         <v>34</v>
-      </c>
-      <c r="B20" s="5">
-        <v>1019</v>
       </c>
       <c r="C20" s="4">
         <v>200706272</v>
@@ -1172,11 +1214,11 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+      <c r="A21" s="5">
+        <v>1020</v>
+      </c>
+      <c r="B21" t="s">
         <v>34</v>
-      </c>
-      <c r="B21" s="5">
-        <v>1020</v>
       </c>
       <c r="C21" s="4">
         <v>200708201</v>
@@ -1189,11 +1231,11 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+      <c r="A22" s="5">
+        <v>1021</v>
+      </c>
+      <c r="B22" t="s">
         <v>34</v>
-      </c>
-      <c r="B22" s="5">
-        <v>1021</v>
       </c>
       <c r="C22" s="4">
         <v>200710212</v>
@@ -1206,11 +1248,11 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+      <c r="A23" s="5">
+        <v>1022</v>
+      </c>
+      <c r="B23" t="s">
         <v>34</v>
-      </c>
-      <c r="B23" s="5">
-        <v>1022</v>
       </c>
       <c r="C23" s="4">
         <v>200709122</v>
@@ -1223,11 +1265,11 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+      <c r="A24" s="5">
+        <v>1023</v>
+      </c>
+      <c r="B24" t="s">
         <v>34</v>
-      </c>
-      <c r="B24" s="5">
-        <v>1023</v>
       </c>
       <c r="C24" s="4">
         <v>200710262</v>
@@ -1240,11 +1282,11 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+      <c r="A25" s="5">
+        <v>1024</v>
+      </c>
+      <c r="B25" t="s">
         <v>34</v>
-      </c>
-      <c r="B25" s="5">
-        <v>1024</v>
       </c>
       <c r="C25" s="4">
         <v>200710182</v>
@@ -1257,11 +1299,11 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+      <c r="A26" s="5">
+        <v>1025</v>
+      </c>
+      <c r="B26" t="s">
         <v>57</v>
-      </c>
-      <c r="B26" s="5">
-        <v>1025</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>44</v>
@@ -1274,11 +1316,11 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+      <c r="A27" s="5">
+        <v>1026</v>
+      </c>
+      <c r="B27" t="s">
         <v>57</v>
-      </c>
-      <c r="B27" s="5">
-        <v>1026</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>47</v>
@@ -1291,11 +1333,11 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+      <c r="A28" s="5">
+        <v>1027</v>
+      </c>
+      <c r="B28" t="s">
         <v>57</v>
-      </c>
-      <c r="B28" s="5">
-        <v>1027</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>49</v>
@@ -1308,11 +1350,11 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+      <c r="A29" s="5">
+        <v>1028</v>
+      </c>
+      <c r="B29" t="s">
         <v>57</v>
-      </c>
-      <c r="B29" s="5">
-        <v>1028</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>51</v>
@@ -1325,11 +1367,11 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+      <c r="A30" s="5">
+        <v>1029</v>
+      </c>
+      <c r="B30" t="s">
         <v>57</v>
-      </c>
-      <c r="B30" s="5">
-        <v>1029</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>53</v>
@@ -1342,11 +1384,11 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+      <c r="A31" s="5">
+        <v>1030</v>
+      </c>
+      <c r="B31" t="s">
         <v>57</v>
-      </c>
-      <c r="B31" s="5">
-        <v>1030</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>54</v>
@@ -1359,7 +1401,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B32" s="5"/>
+      <c r="A32" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
